--- a/Time Table Nov 2018.xlsx
+++ b/Time Table Nov 2018.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Time</t>
   </si>
@@ -133,6 +133,111 @@
   <si>
     <t>Nov - Dec</t>
   </si>
+  <si>
+    <t>Financial Management System</t>
+  </si>
+  <si>
+    <t>Cash in for me</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>Cash out</t>
+  </si>
+  <si>
+    <t>who knows?</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>(food</t>
+  </si>
+  <si>
+    <t>THB/day</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>THB/day)</t>
+  </si>
+  <si>
+    <t>iOS call</t>
+  </si>
+  <si>
+    <t>THB/month</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Works if weekenf stays home all day, best to go Saturday</t>
+  </si>
+  <si>
+    <t>ไห</t>
+  </si>
+  <si>
+    <t>ไห 6 = ค่ากิน อยู่รอด</t>
+  </si>
+  <si>
+    <t>% เมื่อหักจากไห 6</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>stay home Sunday</t>
+  </si>
+  <si>
+    <t>ไห 1 : Financial Freedom</t>
+  </si>
+  <si>
+    <t>ไห 2.1 : LTSS1 : Fix things</t>
+  </si>
+  <si>
+    <t>ไห 2.2 : LTSS2 : Emergency downfalls</t>
+  </si>
+  <si>
+    <t>Total COLD</t>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <t>in yer pocket on your own following this</t>
+  </si>
+  <si>
+    <t>ไห 3 : PLAY</t>
+  </si>
+  <si>
+    <t>ไห 4 : Education (ยังไม่ใช้วัยเรียน)</t>
+  </si>
+  <si>
+    <t>วัยทำงาน เป็น HOT</t>
+  </si>
+  <si>
+    <t>ไห 5 : GIVE</t>
+  </si>
+  <si>
+    <t>Total HOT</t>
+  </si>
+  <si>
+    <t>ไห 6 :Necessities Account</t>
+  </si>
+  <si>
+    <t>x 2</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="mmm\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -161,6 +266,25 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -265,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -293,6 +417,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,2491 +442,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="สี่เหลี่ยมผืนผ้า 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="891540"/>
-          <a:ext cx="3619500" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>นอน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> / Sleep</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="สี่เหลี่ยมผืนผ้า 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="693420" y="1333500"/>
-          <a:ext cx="3307080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>นอน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> / Sleep</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="สี่เหลี่ยมผืนผ้า 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="662940" y="1767840"/>
-          <a:ext cx="3360420" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>นอน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> / Sleep</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>403860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="สี่เหลี่ยมผืนผ้า 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="678180" y="2194560"/>
-          <a:ext cx="3619500" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>นอน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> / Sleep</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="สี่เหลี่ยมผืนผ้า 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="678180" y="2644140"/>
-          <a:ext cx="3322320" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>นอน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> / Sleep</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="สี่เหลี่ยมผืนผ้า 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="3108960"/>
-          <a:ext cx="3962400" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>นอน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> / Sleep</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="สี่เหลี่ยมผืนผ้า 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="678180" y="3543300"/>
-          <a:ext cx="3939540" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100"/>
-            <a:t>นอน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> / Sleep</a:t>
-          </a:r>
-          <a:endParaRPr lang="th-TH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="สี่เหลี่ยมผืนผ้า 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4320540" y="899160"/>
-          <a:ext cx="632460" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="สี่เหลี่ยมผืนผ้า 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4008120" y="1325880"/>
-          <a:ext cx="647700" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="สี่เหลี่ยมผืนผ้า 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4015740" y="1775460"/>
-          <a:ext cx="632460" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="สี่เหลี่ยมผืนผ้า 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4320540" y="2209800"/>
-          <a:ext cx="632460" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="สี่เหลี่ยมผืนผ้า 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="2651760"/>
-          <a:ext cx="632460" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>186146</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>201386</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="สี่เหลี่ยมผืนผ้า 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15433766" y="894806"/>
-          <a:ext cx="678180" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>403859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>129539</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="สี่เหลี่ยมผืนผ้า 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14074139" y="2171699"/>
-          <a:ext cx="640080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>537755</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>33746</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>513806</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="สี่เหลี่ยมผืนผ้า 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14459495" y="917666"/>
-          <a:ext cx="638991" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>530135</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>26126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>506186</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="สี่เหลี่ยมผืนผ้า 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14451875" y="1352006"/>
-          <a:ext cx="638991" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>530135</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>506186</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="สี่เหลี่ยมผืนผ้า 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14451875" y="1778726"/>
-          <a:ext cx="638991" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>186146</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>439782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>412568</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="สี่เหลี่ยมผืนผ้า 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14107886" y="2649582"/>
-          <a:ext cx="640079" cy="414746"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>เดินทาง</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>178526</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>193766</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="สี่เหลี่ยมผืนผ้า 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15426146" y="1344386"/>
-          <a:ext cx="678180" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>193766</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>26126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209006</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="สี่เหลี่ยมผืนผ้า 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15441386" y="1793966"/>
-          <a:ext cx="678180" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>529045</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>8708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>432162</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="สี่เหลี่ยมผืนผ้า 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15113725" y="2660468"/>
-          <a:ext cx="678181" cy="423454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>353785</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="สี่เหลี่ยมผืนผ้า 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15020108" y="2148839"/>
-          <a:ext cx="638992" cy="414746"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>302623</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>26126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>317862</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="สี่เหลี่ยมผืนผ้า 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14224363" y="3119846"/>
-          <a:ext cx="678179" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>287382</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="สี่เหลี่ยมผืนผ้า 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14193883" y="3554186"/>
-          <a:ext cx="678179" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>สวดมนต์</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>633550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>51163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>274321</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>23948</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="สี่เหลี่ยมผืนผ้า 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15881170" y="3144883"/>
-          <a:ext cx="966651" cy="414745"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ตรวจปฎิทิน</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53339</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>219892</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="สี่เหลี่ยมผืนผ้า 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15857221" y="3589019"/>
-          <a:ext cx="936171" cy="419101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ตรวจปฎิทิน</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>117566</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>513806</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="สี่เหลี่ยมผืนผ้า 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14039306" y="902426"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>452846</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>216626</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>422366</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="สี่เหลี่ยมผืนผ้า 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15037526" y="887186"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>170906</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>26126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>568235</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="สี่เหลี่ยมผืนผ้า 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14092646" y="1352006"/>
-          <a:ext cx="397329" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>506186</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>269966</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="สี่เหลี่ยมผืนผ้า 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15090866" y="1336766"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>483326</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="สี่เหลี่ยมผืนผ้า 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14008826" y="1786346"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>422366</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>445226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>186146</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>422366</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="สี่เหลี่ยมผืนผ้า 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15007046" y="1771106"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>60959</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>380999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>488768</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>353785</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="สี่เหลี่ยมผืนผ้า 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14645639" y="2148839"/>
-          <a:ext cx="427809" cy="414746"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>460466</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>404948</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>193766</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>382088</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="สี่เหลี่ยมผืนผ้า 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13719266" y="2614748"/>
-          <a:ext cx="396240" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>131717</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>389708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>559525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>366848</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="สี่เหลี่ยมผืนผ้า 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14716397" y="2599508"/>
-          <a:ext cx="427808" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>234043</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>631372</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="สี่เหลี่ยมผืนผ้า 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13492843" y="3112226"/>
-          <a:ext cx="397329" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>18506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>340723</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>437606</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="สี่เหลี่ยมผืนผ้า 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13835743" y="3112226"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>234043</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>631372</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="สี่เหลี่ยมผืนผ้า 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13492843" y="3546566"/>
-          <a:ext cx="397329" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าวแ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>340723</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>429986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="สี่เหลี่ยมผืนผ้า 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13835743" y="3546566"/>
-          <a:ext cx="426720" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="สี่เหลี่ยมผืนผ้า 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4640580" y="3093720"/>
-          <a:ext cx="632460" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="สี่เหลี่ยมผืนผ้า 41"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4678680" y="3535680"/>
-          <a:ext cx="632460" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>อาบน้ำ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>กินข้าว</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>128451</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>31569</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>105592</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>8709</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="สี่เหลี่ยมผืนผ้า 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16039011" y="2683329"/>
-          <a:ext cx="640081" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1000"/>
-            <a:t>ตัดเล็บ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
@@ -12699,6 +10343,3756 @@
         <a:xfrm>
           <a:off x="16065137" y="2709455"/>
           <a:ext cx="641169" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ตัดเล็บ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>402772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6640286" y="5355771"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>391886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6694714" y="5791200"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662057" y="6281057"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="6716485"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>413656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672943" y="7151913"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>402772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6640286" y="9818914"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>391886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6694714" y="10254343"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662057" y="10744200"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="11179628"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672943" y="11615056"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>402772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6640286" y="14282057"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>391887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6694714" y="14717486"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662057" y="15207343"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="15642771"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672943" y="16078199"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>402772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6640286" y="18745200"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>391887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6694714" y="19180629"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6662057" y="19670486"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="20105914"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>413657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672943" y="20541342"/>
+          <a:ext cx="6008915" cy="402772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E46C0A"/>
+        </a:solidFill>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="3A5F8B"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="th-TH">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สหกิจ</a:t>
+          </a:r>
+          <a:endParaRPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="สี่เหลี่ยมผืนผ้า 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="891540"/>
+          <a:ext cx="3619500" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>นอน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> / Sleep</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="สี่เหลี่ยมผืนผ้า 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693420" y="1333500"/>
+          <a:ext cx="3307080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>นอน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> / Sleep</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="สี่เหลี่ยมผืนผ้า 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662940" y="1767840"/>
+          <a:ext cx="3360420" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>นอน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> / Sleep</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="สี่เหลี่ยมผืนผ้า 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678180" y="2194560"/>
+          <a:ext cx="3619500" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>นอน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> / Sleep</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="สี่เหลี่ยมผืนผ้า 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678180" y="2644140"/>
+          <a:ext cx="3322320" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>นอน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> / Sleep</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="สี่เหลี่ยมผืนผ้า 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="3108960"/>
+          <a:ext cx="3962400" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>นอน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> / Sleep</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="สี่เหลี่ยมผืนผ้า 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678180" y="3543300"/>
+          <a:ext cx="3939540" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100"/>
+            <a:t>นอน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> / Sleep</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="สี่เหลี่ยมผืนผ้า 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4320540" y="899160"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="สี่เหลี่ยมผืนผ้า 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4008120" y="1325880"/>
+          <a:ext cx="647700" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="สี่เหลี่ยมผืนผ้า 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4015740" y="1775460"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="สี่เหลี่ยมผืนผ้า 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4320540" y="2209800"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="สี่เหลี่ยมผืนผ้า 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="2651760"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>186146</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>429986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="สี่เหลี่ยมผืนผ้า 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15433766" y="894806"/>
+          <a:ext cx="678180" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>403859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>129539</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="สี่เหลี่ยมผืนผ้า 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14074139" y="2171699"/>
+          <a:ext cx="640080" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>537755</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>513806</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="สี่เหลี่ยมผืนผ้า 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14459495" y="917666"/>
+          <a:ext cx="638991" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>530135</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>506186</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="สี่เหลี่ยมผืนผ้า 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14451875" y="1352006"/>
+          <a:ext cx="638991" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>530135</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>506186</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>429986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="สี่เหลี่ยมผืนผ้า 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14451875" y="1778726"/>
+          <a:ext cx="638991" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>186146</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>439782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>412568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="สี่เหลี่ยมผืนผ้า 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14107886" y="2649582"/>
+          <a:ext cx="640079" cy="414746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดินทาง</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>178526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>193766</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>437606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="สี่เหลี่ยมผืนผ้า 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15426146" y="1344386"/>
+          <a:ext cx="678180" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>193766</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209006</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="สี่เหลี่ยมผืนผ้า 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15441386" y="1793966"/>
+          <a:ext cx="678180" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>529045</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>432162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="สี่เหลี่ยมผืนผ้า 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15113725" y="2660468"/>
+          <a:ext cx="678181" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>353785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="สี่เหลี่ยมผืนผ้า 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15020108" y="2148839"/>
+          <a:ext cx="638992" cy="414746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>302623</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>317862</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="สี่เหลี่ยมผืนผ้า 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14224363" y="3119846"/>
+          <a:ext cx="678179" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>287382</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>437606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="สี่เหลี่ยมผืนผ้า 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14193883" y="3554186"/>
+          <a:ext cx="678179" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>สวดมนต์</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>633550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>274321</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23948</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="สี่เหลี่ยมผืนผ้า 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15881170" y="3144883"/>
+          <a:ext cx="966651" cy="414745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ตรวจปฎิทิน</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>219892</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="สี่เหลี่ยมผืนผ้า 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15857221" y="3589019"/>
+          <a:ext cx="936171" cy="419101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ตรวจปฎิทิน</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>117566</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>513806</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>437606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="สี่เหลี่ยมผืนผ้า 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14039306" y="902426"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>452846</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>216626</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>422366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="สี่เหลี่ยมผืนผ้า 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15037526" y="887186"/>
+          <a:ext cx="426720" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>170906</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>568235</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="สี่เหลี่ยมผืนผ้า 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14092646" y="1352006"/>
+          <a:ext cx="397329" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>506186</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>269966</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>429986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="สี่เหลี่ยมผืนผ้า 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15090866" y="1336766"/>
+          <a:ext cx="426720" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>483326</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>437606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="สี่เหลี่ยมผืนผ้า 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14008826" y="1786346"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>422366</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>445226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>186146</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>422366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="สี่เหลี่ยมผืนผ้า 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15007046" y="1771106"/>
+          <a:ext cx="426720" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>60959</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>488768</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>353785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="สี่เหลี่ยมผืนผ้า 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14645639" y="2148839"/>
+          <a:ext cx="427809" cy="414746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>460466</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>404948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>193766</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>382088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="สี่เหลี่ยมผืนผ้า 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13719266" y="2614748"/>
+          <a:ext cx="396240" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>131717</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>389708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>559525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>366848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="สี่เหลี่ยมผืนผ้า 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14716397" y="2599508"/>
+          <a:ext cx="427808" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>631372</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>437606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="สี่เหลี่ยมผืนผ้า 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13492843" y="3112226"/>
+          <a:ext cx="397329" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>340723</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>437606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="สี่เหลี่ยมผืนผ้า 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13835743" y="3112226"/>
+          <a:ext cx="426720" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>631372</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>429986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="สี่เหลี่ยมผืนผ้า 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13492843" y="3546566"/>
+          <a:ext cx="397329" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าวแ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>340723</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>429986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="สี่เหลี่ยมผืนผ้า 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13835743" y="3546566"/>
+          <a:ext cx="426720" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="สี่เหลี่ยมผืนผ้า 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640580" y="3093720"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="สี่เหลี่ยมผืนผ้า 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4678680" y="3535680"/>
+          <a:ext cx="632460" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>อาบน้ำ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>กินข้าว</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>128451</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>105592</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="สี่เหลี่ยมผืนผ้า 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16039011" y="2683329"/>
+          <a:ext cx="640081" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13024,10 +14418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:Y41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13035,322 +14429,309 @@
     <col min="1" max="26" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>43405</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="14"/>
+    <row r="1" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16">
+        <v>4500</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="16">
+        <v>20</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="16">
+        <v>70</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="16">
+        <v>65</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="16">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="16">
+        <f>((S1+W1)*O1) + AA1</f>
+        <v>2770</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3">
+    <row r="2" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="16">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3">
-        <v>11</v>
-      </c>
-      <c r="N2" s="3">
-        <v>12</v>
-      </c>
-      <c r="O2" s="3">
-        <v>13</v>
-      </c>
-      <c r="P2" s="3">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>15</v>
-      </c>
-      <c r="R2" s="3">
-        <v>16</v>
-      </c>
-      <c r="S2" s="3">
-        <v>17</v>
-      </c>
-      <c r="T2" s="3">
-        <v>18</v>
-      </c>
-      <c r="U2" s="3">
-        <v>19</v>
-      </c>
-      <c r="V2" s="3">
-        <v>20</v>
-      </c>
-      <c r="W2" s="3">
-        <v>21</v>
-      </c>
-      <c r="X2" s="3">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>23</v>
+      <c r="P2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="16">
+        <v>50</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="16">
+        <v>46</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="16">
+        <f>((S2+W2)*O2)</f>
+        <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+    <row r="3" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17">
+        <f>ROUND(F9*(20/100),0)</f>
+        <v>269</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+    <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17">
+        <f>ROUND(F9*(20/100),0)</f>
+        <v>269</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+    <row r="5" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17">
+        <f>ROUND(F9*(20/100),0)</f>
+        <v>269</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17">
+        <f>SUM(H3:H5)+H7</f>
+        <v>1076</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="17">
+        <f>L5</f>
+        <v>1076</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5">
+        <f>P5*2</f>
+        <v>2152</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+    <row r="6" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <f>ROUND(F9*(15/100),0)</f>
+        <v>202</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+    <row r="7" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17">
+        <f>ROUND(F9*(20/100),0)</f>
+        <v>269</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+    <row r="8" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <f>ROUND(F9*(5/100),0)</f>
+        <v>67</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
+        <f>SUM(H6:H8)-H7</f>
+        <v>269</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+    <row r="9" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
+        <f>H1-H9</f>
+        <v>1346</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>AD1+AD2</f>
+        <v>3154</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="6">
+        <f>H9+L8</f>
+        <v>3423</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43405</v>
       </c>
@@ -13381,7 +14762,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="14"/>
     </row>
-    <row r="12" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -13458,7 +14839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -13487,7 +14868,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -13516,7 +14897,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -13545,7 +14926,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -15553,8 +16934,7 @@
     <row r="999" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:Y1"/>
+  <mergeCells count="4">
     <mergeCell ref="B11:Y11"/>
     <mergeCell ref="B21:Y21"/>
     <mergeCell ref="B31:Y31"/>
@@ -15568,12 +16948,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>43405</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="14"/>
+    </row>
+    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3">
+        <v>7</v>
+      </c>
+      <c r="L5" s="3">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3">
+        <v>9</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3">
+        <v>11</v>
+      </c>
+      <c r="P5" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>13</v>
+      </c>
+      <c r="R5" s="3">
+        <v>14</v>
+      </c>
+      <c r="S5" s="3">
+        <v>15</v>
+      </c>
+      <c r="T5" s="3">
+        <v>16</v>
+      </c>
+      <c r="U5" s="3">
+        <v>17</v>
+      </c>
+      <c r="V5" s="3">
+        <v>18</v>
+      </c>
+      <c r="W5" s="3">
+        <v>19</v>
+      </c>
+      <c r="X5" s="3">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:AA4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Time Table Nov 2018.xlsx
+++ b/Time Table Nov 2018.xlsx
@@ -412,16 +412,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11633,6 +11633,103 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>424544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>401683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="สี่เหลี่ยมผืนผ้า 231"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10232572" y="5780315"/>
+          <a:ext cx="2884714" cy="423454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ให้แม่ไปรับยาแทนเรา ที่รพนวมินทร์ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t> ใบนัด </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>(3 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>เดือน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t>บอกอาการ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000"/>
+            <a:t>ให้บัตร</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1000" baseline="0"/>
+            <a:t> ปชช. ของเราไปด้วย</a:t>
+          </a:r>
+          <a:endParaRPr lang="th-TH" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14420,8 +14517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14430,17 +14527,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13">
         <v>4500</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -14450,56 +14547,56 @@
       <c r="L1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1" s="13">
         <v>20</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="16">
+      <c r="S1" s="13">
         <v>70</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="16">
+      <c r="W1" s="13">
         <v>65</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="16">
+      <c r="AA1" s="13">
         <v>70</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="16">
+      <c r="AD1" s="13">
         <f>((S1+W1)*O1) + AA1</f>
         <v>2770</v>
       </c>
@@ -14520,116 +14617,116 @@
       <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="13">
         <v>4</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="13">
         <v>50</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="13">
         <v>46</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16" t="s">
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16" t="s">
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AD2" s="13">
         <f>((S2+W2)*O2)</f>
         <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15">
         <v>0.2</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15">
         <v>0.2</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15">
         <v>0.2</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14">
         <f>SUM(H3:H5)+H7</f>
         <v>1076</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="14">
         <f>L5</f>
         <v>1076</v>
       </c>
@@ -14651,7 +14748,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <v>0.15</v>
       </c>
       <c r="G6" s="6"/>
@@ -14661,17 +14758,17 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15">
         <v>0.2</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14">
         <f>ROUND(F9*(20/100),0)</f>
         <v>269</v>
       </c>
@@ -14686,7 +14783,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="19">
+      <c r="F8" s="16">
         <v>0.05</v>
       </c>
       <c r="G8" s="6"/>
@@ -14704,18 +14801,18 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
         <f>H1-H9</f>
         <v>1346</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
         <f>AD1+AD2</f>
         <v>3154</v>
       </c>
@@ -14735,32 +14832,32 @@
       <c r="A11" s="1">
         <v>43405</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="14"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="19"/>
     </row>
     <row r="12" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -15047,32 +15144,32 @@
       <c r="A21" s="1">
         <v>43405</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="14"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="19"/>
     </row>
     <row r="22" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -15359,32 +15456,32 @@
       <c r="A31" s="1">
         <v>43405</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="14"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="19"/>
     </row>
     <row r="32" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -15671,32 +15768,32 @@
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="14"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="19"/>
     </row>
     <row r="42" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -16960,32 +17057,32 @@
       <c r="C4" s="1">
         <v>43405</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="14"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="19"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
